--- a/data/report/time_result.xlsx
+++ b/data/report/time_result.xlsx
@@ -525,16 +525,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9.141689373297003</v>
+        <v>9.136239782016348</v>
       </c>
       <c r="D2" t="n">
         <v>9</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -544,16 +544,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>296.4922797456857</v>
+        <v>265.930063578565</v>
       </c>
       <c r="D3" t="n">
-        <v>305</v>
+        <v>275</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>383</v>
+        <v>363</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>180</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4">
@@ -563,13 +563,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11.20072661217075</v>
+        <v>10.31062670299728</v>
       </c>
       <c r="D4" t="n">
         <v>2</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>1</v>

--- a/data/report/time_result.xlsx
+++ b/data/report/time_result.xlsx
@@ -466,7 +466,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
@@ -516,7 +516,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SURF</t>
+          <t>SURF/FREAK</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -525,16 +525,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9.136239782016348</v>
+        <v>10.6158038147139</v>
       </c>
       <c r="D2" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -544,16 +544,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>265.930063578565</v>
+        <v>115.3896457765668</v>
       </c>
       <c r="D3" t="n">
-        <v>275</v>
+        <v>118</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>363</v>
+        <v>168</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>165</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4">
@@ -563,185 +563,947 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10.31062670299728</v>
+        <v>22.0835603996367</v>
       </c>
       <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>920</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>GFTT/FREAK</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10.65758401453224</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>odom</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>81.10263396911898</v>
+      </c>
+      <c r="D6" t="n">
+        <v>83</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>slam</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>25.98637602179836</v>
+      </c>
+      <c r="D7" t="n">
         <v>2</v>
       </c>
-      <c r="E4" s="1" t="n">
-        <v>375</v>
-      </c>
-      <c r="F4" s="1" t="n">
+      <c r="E7" s="1" t="n">
+        <v>1940</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>PyDetector</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>10.61217075386013</v>
+      </c>
+      <c r="D8" t="n">
+        <v>11</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>odom</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>253.6485013623978</v>
+      </c>
+      <c r="D9" t="n">
+        <v>263</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>slam</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>9.085376930063578</v>
+      </c>
+      <c r="D10" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="E5" s="1" t="n"/>
-      <c r="F5" s="1" t="n"/>
-    </row>
-    <row r="6">
-      <c r="E6" s="1" t="n"/>
-      <c r="F6" s="1" t="n"/>
-    </row>
-    <row r="7">
-      <c r="E7" s="1" t="n"/>
-      <c r="F7" s="1" t="n"/>
-    </row>
-    <row r="8">
-      <c r="E8" s="1" t="n"/>
-      <c r="F8" s="1" t="n"/>
-    </row>
-    <row r="9">
-      <c r="E9" s="1" t="n"/>
-      <c r="F9" s="1" t="n"/>
-    </row>
-    <row r="10">
-      <c r="E10" s="1" t="n"/>
-      <c r="F10" s="1" t="n"/>
+      <c r="E10" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
-      <c r="E11" s="1" t="n"/>
-      <c r="F11" s="1" t="n"/>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>SuperPoint</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>10.41235240690282</v>
+      </c>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="12">
-      <c r="E12" s="1" t="n"/>
-      <c r="F12" s="1" t="n"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>odom</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>902.5867393278837</v>
+      </c>
+      <c r="D12" t="n">
+        <v>908</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>1050</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>813</v>
+      </c>
     </row>
     <row r="13">
-      <c r="E13" s="1" t="n"/>
-      <c r="F13" s="1" t="n"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>slam</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>12.47411444141689</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>633</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
-      <c r="E14" s="1" t="n"/>
-      <c r="F14" s="1" t="n"/>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>KAZE</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>10.75840145322434</v>
+      </c>
+      <c r="D14" t="n">
+        <v>11</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="15">
-      <c r="E15" s="1" t="n"/>
-      <c r="F15" s="1" t="n"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>odom</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>737.3823796548592</v>
+      </c>
+      <c r="D15" t="n">
+        <v>738</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>800</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>667</v>
+      </c>
     </row>
     <row r="16">
-      <c r="E16" s="1" t="n"/>
-      <c r="F16" s="1" t="n"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>slam</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>10.15803814713897</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
-      <c r="E17" s="1" t="n"/>
-      <c r="F17" s="1" t="n"/>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>FAST/FREAK</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>10.58673932788374</v>
+      </c>
+      <c r="D17" t="n">
+        <v>11</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="18">
-      <c r="E18" s="1" t="n"/>
-      <c r="F18" s="1" t="n"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>odom</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>84.80653950953679</v>
+      </c>
+      <c r="D18" t="n">
+        <v>84</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="19">
-      <c r="E19" s="1" t="n"/>
-      <c r="F19" s="1" t="n"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>slam</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>26.18710263396912</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>1925</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
-      <c r="E20" s="1" t="n"/>
-      <c r="F20" s="1" t="n"/>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>SIFT</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>11.03088101725704</v>
+      </c>
+      <c r="D20" t="n">
+        <v>11</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="21">
-      <c r="E21" s="1" t="n"/>
-      <c r="F21" s="1" t="n"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>odom</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>306.2207084468665</v>
+      </c>
+      <c r="D21" t="n">
+        <v>305</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>278</v>
+      </c>
     </row>
     <row r="22">
-      <c r="E22" s="1" t="n"/>
-      <c r="F22" s="1" t="n"/>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>slam</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>12.74477747502271</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>471</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
-      <c r="E23" s="1" t="n"/>
-      <c r="F23" s="1" t="n"/>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ORB</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>10.5386012715713</v>
+      </c>
+      <c r="D23" t="n">
+        <v>11</v>
+      </c>
+      <c r="E23" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="24">
-      <c r="E24" s="1" t="n"/>
-      <c r="F24" s="1" t="n"/>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>odom</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>94.21525885558583</v>
+      </c>
+      <c r="D24" t="n">
+        <v>93</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="25">
-      <c r="E25" s="1" t="n"/>
-      <c r="F25" s="1" t="n"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>slam</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>16.89827429609446</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>547</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
-      <c r="E26" s="1" t="n"/>
-      <c r="F26" s="1" t="n"/>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>GFTT/ORB</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>10.72025431425976</v>
+      </c>
+      <c r="D26" t="n">
+        <v>11</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="27">
-      <c r="E27" s="1" t="n"/>
-      <c r="F27" s="1" t="n"/>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>odom</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>77.82924613987284</v>
+      </c>
+      <c r="D27" t="n">
+        <v>80</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="28">
-      <c r="E28" s="1" t="n"/>
-      <c r="F28" s="1" t="n"/>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>slam</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>17.09173478655768</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2</v>
+      </c>
+      <c r="E28" s="1" t="n">
+        <v>577</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
-      <c r="E29" s="1" t="n"/>
-      <c r="F29" s="1" t="n"/>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>SURF/DAISY</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>10.67574931880109</v>
+      </c>
+      <c r="D29" t="n">
+        <v>11</v>
+      </c>
+      <c r="E29" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="F29" s="1" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="30">
-      <c r="E30" s="1" t="n"/>
-      <c r="F30" s="1" t="n"/>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>odom</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>195.1171662125341</v>
+      </c>
+      <c r="D30" t="n">
+        <v>199</v>
+      </c>
+      <c r="E30" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="F30" s="1" t="n">
+        <v>147</v>
+      </c>
     </row>
     <row r="31">
-      <c r="E31" s="1" t="n"/>
-      <c r="F31" s="1" t="n"/>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>slam</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>14.23433242506812</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2</v>
+      </c>
+      <c r="E31" s="1" t="n">
+        <v>572</v>
+      </c>
+      <c r="F31" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
-      <c r="E32" s="1" t="n"/>
-      <c r="F32" s="1" t="n"/>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>BRISK</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>10.81380563124432</v>
+      </c>
+      <c r="D32" t="n">
+        <v>11</v>
+      </c>
+      <c r="E32" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="F32" s="1" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="33">
-      <c r="E33" s="1" t="n"/>
-      <c r="F33" s="1" t="n"/>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>odom</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>178.464123524069</v>
+      </c>
+      <c r="D33" t="n">
+        <v>174</v>
+      </c>
+      <c r="E33" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="F33" s="1" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="34">
-      <c r="E34" s="1" t="n"/>
-      <c r="F34" s="1" t="n"/>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>slam</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>24.19255222524977</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2</v>
+      </c>
+      <c r="E34" s="1" t="n">
+        <v>931</v>
+      </c>
+      <c r="F34" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="35">
-      <c r="E35" s="1" t="n"/>
-      <c r="F35" s="1" t="n"/>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>GFTT/DAISY</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>10.64305177111717</v>
+      </c>
+      <c r="D35" t="n">
+        <v>11</v>
+      </c>
+      <c r="E35" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="F35" s="1" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="36">
-      <c r="E36" s="1" t="n"/>
-      <c r="F36" s="1" t="n"/>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>odom</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>145.0980926430518</v>
+      </c>
+      <c r="D36" t="n">
+        <v>147</v>
+      </c>
+      <c r="E36" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="F36" s="1" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="37">
-      <c r="E37" s="1" t="n"/>
-      <c r="F37" s="1" t="n"/>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>slam</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>13.46049046321526</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2</v>
+      </c>
+      <c r="E37" s="1" t="n">
+        <v>572</v>
+      </c>
+      <c r="F37" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
-      <c r="E38" s="1" t="n"/>
-      <c r="F38" s="1" t="n"/>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>ORB-OCTREE</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>10.54041780199818</v>
+      </c>
+      <c r="D38" t="n">
+        <v>11</v>
+      </c>
+      <c r="E38" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="F38" s="1" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="39">
-      <c r="E39" s="1" t="n"/>
-      <c r="F39" s="1" t="n"/>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>odom</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>95</v>
+      </c>
+      <c r="D39" t="n">
+        <v>95</v>
+      </c>
+      <c r="E39" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="F39" s="1" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="40">
-      <c r="E40" s="1" t="n"/>
-      <c r="F40" s="1" t="n"/>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>slam</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>18.04268846503179</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" s="1" t="n">
+        <v>1255</v>
+      </c>
+      <c r="F40" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
-      <c r="E41" s="1" t="n"/>
-      <c r="F41" s="1" t="n"/>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>SURF</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>10.7574931880109</v>
+      </c>
+      <c r="D41" t="n">
+        <v>11</v>
+      </c>
+      <c r="E41" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F41" s="1" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="42">
-      <c r="E42" s="1" t="n"/>
-      <c r="F42" s="1" t="n"/>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>odom</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>258</v>
+      </c>
+      <c r="D42" t="n">
+        <v>267</v>
+      </c>
+      <c r="E42" s="1" t="n">
+        <v>406</v>
+      </c>
+      <c r="F42" s="1" t="n">
+        <v>161</v>
+      </c>
     </row>
     <row r="43">
-      <c r="E43" s="1" t="n"/>
-      <c r="F43" s="1" t="n"/>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>slam</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>9.623978201634877</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2</v>
+      </c>
+      <c r="E43" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="F43" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
-      <c r="E44" s="1" t="n"/>
-      <c r="F44" s="1" t="n"/>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>GFTT/BRIEF</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>10.64759309718438</v>
+      </c>
+      <c r="D44" t="n">
+        <v>11</v>
+      </c>
+      <c r="E44" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="F44" s="1" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="45">
-      <c r="E45" s="1" t="n"/>
-      <c r="F45" s="1" t="n"/>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>odom</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>73.86194368755676</v>
+      </c>
+      <c r="D45" t="n">
+        <v>76</v>
+      </c>
+      <c r="E45" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="F45" s="1" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="46">
-      <c r="E46" s="1" t="n"/>
-      <c r="F46" s="1" t="n"/>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>slam</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>17.37693006357857</v>
+      </c>
+      <c r="D46" t="n">
+        <v>2</v>
+      </c>
+      <c r="E46" s="1" t="n">
+        <v>576</v>
+      </c>
+      <c r="F46" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>FAST/BRIEF</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>camera</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>10.57311534968211</v>
+      </c>
+      <c r="D47" t="n">
+        <v>11</v>
+      </c>
+      <c r="E47" t="n">
+        <v>18</v>
+      </c>
+      <c r="F47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>odom</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>78.89827429609446</v>
+      </c>
+      <c r="D48" t="n">
+        <v>78</v>
+      </c>
+      <c r="E48" t="n">
+        <v>113</v>
+      </c>
+      <c r="F48" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>slam</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>15.72297910990009</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" t="n">
+        <v>549</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
